--- a/data/fungicide-sensitivity-2019_exp-02_azoxystrobin.xlsx
+++ b/data/fungicide-sensitivity-2019_exp-02_azoxystrobin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD9489B-6687-4508-8EBF-16031E31A77F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602E6F2B-9C3D-4675-B28A-B63551B045B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,24 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>isolate</t>
   </si>
   <si>
-    <t>Rep</t>
+    <t>rep</t>
   </si>
   <si>
-    <t>Dose</t>
+    <t>dose</t>
   </si>
   <si>
-    <t>A</t>
+    <t>length_a</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>na</t>
+    <t>length_b</t>
   </si>
 </sst>
 </file>
@@ -413,11 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272:E289"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,9 +435,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -450,15 +446,15 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>36.03</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>33.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -467,15 +463,15 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>37.909999999999997</v>
+        <v>31.78</v>
       </c>
       <c r="E3">
-        <v>41.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -484,15 +480,15 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>29.87</v>
+        <v>26.76</v>
       </c>
       <c r="E4">
-        <v>29.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -501,15 +497,15 @@
         <v>0.1</v>
       </c>
       <c r="D5">
-        <v>34.14</v>
+        <v>30.14</v>
       </c>
       <c r="E5">
-        <v>35.450000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -517,16 +513,10 @@
       <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="D6">
-        <v>35.17</v>
-      </c>
-      <c r="E6">
-        <v>37.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -535,15 +525,15 @@
         <v>0.1</v>
       </c>
       <c r="D7">
-        <v>33.1</v>
+        <v>30.41</v>
       </c>
       <c r="E7">
-        <v>33.950000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -552,15 +542,15 @@
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>29.82</v>
+        <v>24.41</v>
       </c>
       <c r="E8">
-        <v>29.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -569,15 +559,15 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>28.25</v>
+        <v>24.78</v>
       </c>
       <c r="E9">
-        <v>26.43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -586,15 +576,15 @@
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>27.64</v>
+        <v>25.11</v>
       </c>
       <c r="E10">
-        <v>27.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -603,15 +593,15 @@
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>22.4</v>
+        <v>20.93</v>
       </c>
       <c r="E11">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -620,15 +610,15 @@
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>20.82</v>
+        <v>22.49</v>
       </c>
       <c r="E12">
-        <v>23.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -637,15 +627,15 @@
         <v>0.1</v>
       </c>
       <c r="D13">
-        <v>20.61</v>
+        <v>20.8</v>
       </c>
       <c r="E13">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -654,15 +644,15 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>24.78</v>
+        <v>24.67</v>
       </c>
       <c r="E14">
-        <v>23.68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -671,15 +661,15 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>24.35</v>
+        <v>23.55</v>
       </c>
       <c r="E15">
-        <v>22.59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -688,15 +678,15 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>28.76</v>
+        <v>21.33</v>
       </c>
       <c r="E16">
-        <v>30.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -711,9 +701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -728,9 +718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -745,9 +735,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -756,15 +746,15 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>41.15</v>
+        <v>36.03</v>
       </c>
       <c r="E20">
-        <v>41.11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>33.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -773,15 +763,15 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>39.229999999999997</v>
+        <v>37.909999999999997</v>
       </c>
       <c r="E21">
-        <v>40.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>41.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -790,15 +780,15 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>40.44</v>
+        <v>29.87</v>
       </c>
       <c r="E22">
-        <v>39.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -807,15 +797,15 @@
         <v>0.1</v>
       </c>
       <c r="D23">
-        <v>38.57</v>
+        <v>34.14</v>
       </c>
       <c r="E23">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -824,15 +814,15 @@
         <v>0.1</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>35.17</v>
       </c>
       <c r="E24">
-        <v>37.159999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -841,15 +831,15 @@
         <v>0.1</v>
       </c>
       <c r="D25">
-        <v>38.020000000000003</v>
+        <v>33.1</v>
       </c>
       <c r="E25">
-        <v>38.54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>33.950000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -858,15 +848,15 @@
         <v>0.5</v>
       </c>
       <c r="D26">
-        <v>34.21</v>
+        <v>29.82</v>
       </c>
       <c r="E26">
-        <v>33.450000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -875,15 +865,15 @@
         <v>0.5</v>
       </c>
       <c r="D27">
-        <v>30.71</v>
+        <v>28.25</v>
       </c>
       <c r="E27">
-        <v>30.81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -891,13 +881,16 @@
       <c r="C28">
         <v>0.5</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>27.64</v>
+      </c>
+      <c r="E28">
+        <v>27.97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -906,15 +899,15 @@
         <v>0.1</v>
       </c>
       <c r="D29">
-        <v>24.79</v>
+        <v>22.4</v>
       </c>
       <c r="E29">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -923,15 +916,15 @@
         <v>0.1</v>
       </c>
       <c r="D30">
-        <v>23.91</v>
+        <v>20.82</v>
       </c>
       <c r="E30">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -940,15 +933,15 @@
         <v>0.1</v>
       </c>
       <c r="D31">
-        <v>26.15</v>
+        <v>20.61</v>
       </c>
       <c r="E31">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -957,15 +950,15 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>27.08</v>
+        <v>24.78</v>
       </c>
       <c r="E32">
-        <v>29.22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -974,15 +967,15 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>28.54</v>
+        <v>24.35</v>
       </c>
       <c r="E33">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>22.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -991,15 +984,15 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>27.47</v>
+        <v>28.76</v>
       </c>
       <c r="E34">
-        <v>29.33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1014,9 +1007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1031,9 +1024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1048,9 +1041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1059,15 +1052,15 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>38.380000000000003</v>
+        <v>41.15</v>
       </c>
       <c r="E38">
-        <v>38.86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>41.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1076,15 +1069,15 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>39.65</v>
+        <v>39.229999999999997</v>
       </c>
       <c r="E39">
-        <v>40.69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>40.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1093,15 +1086,15 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>40.619999999999997</v>
+        <v>40.44</v>
       </c>
       <c r="E40">
-        <v>40.32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1110,15 +1103,15 @@
         <v>0.1</v>
       </c>
       <c r="D41">
-        <v>37.97</v>
+        <v>38.57</v>
       </c>
       <c r="E41">
-        <v>38.380000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1127,15 +1120,15 @@
         <v>0.1</v>
       </c>
       <c r="D42">
-        <v>35.58</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>35.53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>37.159999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1144,15 +1137,15 @@
         <v>0.1</v>
       </c>
       <c r="D43">
-        <v>40.6</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="E43">
-        <v>36.74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>38.54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1161,15 +1154,15 @@
         <v>0.5</v>
       </c>
       <c r="D44">
-        <v>32.68</v>
+        <v>34.21</v>
       </c>
       <c r="E44">
-        <v>33.090000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>33.450000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1178,15 +1171,15 @@
         <v>0.5</v>
       </c>
       <c r="D45">
-        <v>33.15</v>
+        <v>30.71</v>
       </c>
       <c r="E45">
-        <v>30.94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1194,271 +1187,265 @@
       <c r="C46">
         <v>0.5</v>
       </c>
-      <c r="D46">
-        <v>31.72</v>
-      </c>
-      <c r="E46">
-        <v>30.52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+      <c r="D47">
+        <v>24.79</v>
+      </c>
+      <c r="E47">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>0.1</v>
+      </c>
+      <c r="D48">
+        <v>23.91</v>
+      </c>
+      <c r="E48">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>0.1</v>
+      </c>
+      <c r="D49">
+        <v>26.15</v>
+      </c>
+      <c r="E49">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>27.08</v>
+      </c>
+      <c r="E50">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>28.54</v>
+      </c>
+      <c r="E51">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>27.47</v>
+      </c>
+      <c r="E52">
+        <v>29.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>4</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0.1</v>
-      </c>
-      <c r="D47">
-        <v>23.46</v>
-      </c>
-      <c r="E47">
-        <v>24.94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="E56">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>4</v>
       </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>0.1</v>
-      </c>
-      <c r="D48">
-        <v>22.68</v>
-      </c>
-      <c r="E48">
-        <v>22.67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>39.65</v>
+      </c>
+      <c r="E57">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>4</v>
       </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>0.1</v>
-      </c>
-      <c r="D49">
-        <v>23.46</v>
-      </c>
-      <c r="E49">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="E58">
+        <v>40.32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>4</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>27.13</v>
-      </c>
-      <c r="E50">
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0.1</v>
+      </c>
+      <c r="D59">
+        <v>37.97</v>
+      </c>
+      <c r="E59">
+        <v>38.380000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>4</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>26.04</v>
-      </c>
-      <c r="E51">
-        <v>25.53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>0.1</v>
+      </c>
+      <c r="D60">
+        <v>35.58</v>
+      </c>
+      <c r="E60">
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>4</v>
       </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>23.7</v>
-      </c>
-      <c r="E52">
-        <v>23.43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>0.1</v>
+      </c>
+      <c r="D61">
+        <v>40.6</v>
+      </c>
+      <c r="E61">
+        <v>36.74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>4</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>6</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>38.25</v>
-      </c>
-      <c r="E56">
-        <v>38.96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>6</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>41.01</v>
-      </c>
-      <c r="E57">
-        <v>41.94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>33.71</v>
-      </c>
-      <c r="E58">
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>6</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0.1</v>
-      </c>
-      <c r="D59">
-        <v>39.99</v>
-      </c>
-      <c r="E59">
-        <v>37.590000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>6</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>0.1</v>
-      </c>
-      <c r="D60">
-        <v>38.28</v>
-      </c>
-      <c r="E60">
-        <v>38.479999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>6</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>0.1</v>
-      </c>
-      <c r="D61">
-        <v>37.22</v>
-      </c>
-      <c r="E61">
-        <v>34.78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>6</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1467,15 +1454,15 @@
         <v>0.5</v>
       </c>
       <c r="D62">
-        <v>33.29</v>
+        <v>32.68</v>
       </c>
       <c r="E62">
-        <v>33.979999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>33.090000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -1484,15 +1471,15 @@
         <v>0.5</v>
       </c>
       <c r="D63">
-        <v>34.25</v>
+        <v>33.15</v>
       </c>
       <c r="E63">
-        <v>33.549999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1501,15 +1488,15 @@
         <v>0.5</v>
       </c>
       <c r="D64">
-        <v>28.84</v>
+        <v>31.72</v>
       </c>
       <c r="E64">
-        <v>30.93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30.52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1518,15 +1505,15 @@
         <v>0.1</v>
       </c>
       <c r="D65">
-        <v>23.64</v>
+        <v>23.46</v>
       </c>
       <c r="E65">
-        <v>27.44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1535,15 +1522,15 @@
         <v>0.1</v>
       </c>
       <c r="D66">
-        <v>24.46</v>
+        <v>22.68</v>
       </c>
       <c r="E66">
-        <v>26.51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -1552,15 +1539,15 @@
         <v>0.1</v>
       </c>
       <c r="D67">
-        <v>22.61</v>
+        <v>23.46</v>
       </c>
       <c r="E67">
-        <v>22.63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1569,15 +1556,15 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>28.04</v>
+        <v>27.13</v>
       </c>
       <c r="E68">
-        <v>23.31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -1586,15 +1573,15 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>25.3</v>
+        <v>26.04</v>
       </c>
       <c r="E69">
-        <v>26.89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -1603,15 +1590,15 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="E70">
-        <v>25.95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>23.43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1626,9 +1613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -1643,9 +1630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -1660,9 +1647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1671,15 +1658,15 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>42.51</v>
+        <v>37.5</v>
       </c>
       <c r="E74">
-        <v>40.67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>36.93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -1688,15 +1675,15 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>39.61</v>
+        <v>32.46</v>
       </c>
       <c r="E75">
-        <v>43.09</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>32.909999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1705,15 +1692,15 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>38.229999999999997</v>
+        <v>26.54</v>
       </c>
       <c r="E76">
-        <v>36.29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1722,15 +1709,15 @@
         <v>0.1</v>
       </c>
       <c r="D77">
-        <v>38.44</v>
+        <v>30.12</v>
       </c>
       <c r="E77">
-        <v>40.130000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -1739,15 +1726,15 @@
         <v>0.1</v>
       </c>
       <c r="D78">
-        <v>37.479999999999997</v>
+        <v>29.77</v>
       </c>
       <c r="E78">
-        <v>38.31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>29.84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1756,15 +1743,15 @@
         <v>0.1</v>
       </c>
       <c r="D79">
-        <v>37.67</v>
+        <v>24.74</v>
       </c>
       <c r="E79">
-        <v>38.71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1773,15 +1760,15 @@
         <v>0.5</v>
       </c>
       <c r="D80">
-        <v>31.14</v>
+        <v>21.33</v>
       </c>
       <c r="E80">
-        <v>34.11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -1790,15 +1777,15 @@
         <v>0.5</v>
       </c>
       <c r="D81">
-        <v>30.8</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="E81">
-        <v>33.770000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -1807,15 +1794,15 @@
         <v>0.5</v>
       </c>
       <c r="D82">
-        <v>32.67</v>
+        <v>18.45</v>
       </c>
       <c r="E82">
-        <v>33.68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1824,15 +1811,15 @@
         <v>0.1</v>
       </c>
       <c r="D83">
-        <v>29.21</v>
+        <v>15.67</v>
       </c>
       <c r="E83">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -1841,15 +1828,15 @@
         <v>0.1</v>
       </c>
       <c r="D84">
-        <v>25.15</v>
+        <v>16.18</v>
       </c>
       <c r="E84">
-        <v>27.06</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -1858,15 +1845,15 @@
         <v>0.1</v>
       </c>
       <c r="D85">
-        <v>28.61</v>
+        <v>12.75</v>
       </c>
       <c r="E85">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1875,15 +1862,15 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>25.51</v>
+        <v>16.27</v>
       </c>
       <c r="E86">
-        <v>25.55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -1892,15 +1879,15 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>26.76</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="E87">
-        <v>26.77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -1909,15 +1896,15 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>27.66</v>
+        <v>14.85</v>
       </c>
       <c r="E88">
-        <v>30.45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1932,9 +1919,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -1949,9 +1936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -1966,9 +1953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1977,15 +1964,15 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>42.85</v>
+        <v>38.25</v>
       </c>
       <c r="E92">
-        <v>42.95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>38.96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -1994,15 +1981,15 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>42.19</v>
+        <v>41.01</v>
       </c>
       <c r="E93">
-        <v>38.93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2011,15 +1998,15 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>39.58</v>
+        <v>33.71</v>
       </c>
       <c r="E94">
-        <v>37.68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2028,15 +2015,15 @@
         <v>0.1</v>
       </c>
       <c r="D95">
-        <v>42.58</v>
+        <v>39.99</v>
       </c>
       <c r="E95">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>37.590000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2045,15 +2032,15 @@
         <v>0.1</v>
       </c>
       <c r="D96">
-        <v>35.68</v>
+        <v>38.28</v>
       </c>
       <c r="E96">
-        <v>35.630000000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>38.479999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -2062,15 +2049,15 @@
         <v>0.1</v>
       </c>
       <c r="D97">
-        <v>39.06</v>
+        <v>37.22</v>
       </c>
       <c r="E97">
-        <v>37.56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>34.78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2079,15 +2066,15 @@
         <v>0.5</v>
       </c>
       <c r="D98">
-        <v>37.15</v>
+        <v>33.29</v>
       </c>
       <c r="E98">
-        <v>35.729999999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>33.979999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -2096,15 +2083,15 @@
         <v>0.5</v>
       </c>
       <c r="D99">
-        <v>33.229999999999997</v>
+        <v>34.25</v>
       </c>
       <c r="E99">
-        <v>33.19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>33.549999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -2113,15 +2100,15 @@
         <v>0.5</v>
       </c>
       <c r="D100">
-        <v>33.68</v>
+        <v>28.84</v>
       </c>
       <c r="E100">
-        <v>33.64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>30.93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -2130,15 +2117,15 @@
         <v>0.1</v>
       </c>
       <c r="D101">
-        <v>27.91</v>
+        <v>23.64</v>
       </c>
       <c r="E101">
-        <v>28.66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2147,15 +2134,15 @@
         <v>0.1</v>
       </c>
       <c r="D102">
-        <v>27.41</v>
+        <v>24.46</v>
       </c>
       <c r="E102">
-        <v>27.42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>26.51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -2164,15 +2151,15 @@
         <v>0.1</v>
       </c>
       <c r="D103">
-        <v>27.15</v>
+        <v>22.61</v>
       </c>
       <c r="E103">
-        <v>31.45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2181,15 +2168,15 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>33.82</v>
+        <v>28.04</v>
       </c>
       <c r="E104">
-        <v>33.81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -2198,15 +2185,15 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>27.42</v>
+        <v>25.3</v>
       </c>
       <c r="E105">
-        <v>29.25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -2215,15 +2202,15 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>29.17</v>
+        <v>24</v>
       </c>
       <c r="E106">
-        <v>27.86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2238,9 +2225,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -2255,9 +2242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -2272,9 +2259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2283,15 +2270,15 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>36.25</v>
+        <v>40.21</v>
       </c>
       <c r="E110">
-        <v>37.020000000000003</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>41.64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2300,15 +2287,15 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>32.06</v>
+        <v>41.7</v>
       </c>
       <c r="E111">
-        <v>33.28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>38.06</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -2317,15 +2304,15 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>36.549999999999997</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="E112">
-        <v>37.99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>37.82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2334,15 +2321,15 @@
         <v>0.1</v>
       </c>
       <c r="D113">
-        <v>37.19</v>
+        <v>35.33</v>
       </c>
       <c r="E113">
-        <v>39.46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>35.39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2351,15 +2338,15 @@
         <v>0.1</v>
       </c>
       <c r="D114">
-        <v>34.840000000000003</v>
+        <v>33.35</v>
       </c>
       <c r="E114">
-        <v>30.63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>36.51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -2368,15 +2355,15 @@
         <v>0.1</v>
       </c>
       <c r="D115">
-        <v>36.31</v>
+        <v>34.15</v>
       </c>
       <c r="E115">
-        <v>38.15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>34.119999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -2385,15 +2372,15 @@
         <v>0.5</v>
       </c>
       <c r="D116">
-        <v>41.96</v>
+        <v>22.59</v>
       </c>
       <c r="E116">
-        <v>42.77</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>21.41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2402,15 +2389,15 @@
         <v>0.5</v>
       </c>
       <c r="D117">
-        <v>42.58</v>
+        <v>26.25</v>
       </c>
       <c r="E117">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>24.76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -2419,15 +2406,15 @@
         <v>0.5</v>
       </c>
       <c r="D118">
-        <v>42.86</v>
+        <v>24.84</v>
       </c>
       <c r="E118">
-        <v>43.05</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2436,15 +2423,15 @@
         <v>0.1</v>
       </c>
       <c r="D119">
-        <v>42.76</v>
+        <v>17.5</v>
       </c>
       <c r="E119">
-        <v>42.27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2453,15 +2440,15 @@
         <v>0.1</v>
       </c>
       <c r="D120">
-        <v>39.54</v>
+        <v>19.21</v>
       </c>
       <c r="E120">
-        <v>39.53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -2470,15 +2457,15 @@
         <v>0.1</v>
       </c>
       <c r="D121">
-        <v>42.27</v>
+        <v>14.28</v>
       </c>
       <c r="E121">
-        <v>40.98</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>14.07</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2487,15 +2474,15 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>42.27</v>
+        <v>17.95</v>
       </c>
       <c r="E122">
-        <v>41.75</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -2504,15 +2491,15 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>41.64</v>
+        <v>22.65</v>
       </c>
       <c r="E123">
-        <v>41.62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -2521,15 +2508,15 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>44.58</v>
+        <v>19.23</v>
       </c>
       <c r="E124">
-        <v>44.91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>18.37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2538,15 +2525,15 @@
         <v>10</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="E125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2561,9 +2548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -2580,7 +2567,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2589,15 +2576,15 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>29</v>
+        <v>43.79</v>
       </c>
       <c r="E128">
-        <v>29.12</v>
+        <v>44.27</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2606,15 +2593,15 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>31.78</v>
+        <v>32.78</v>
       </c>
       <c r="E129">
-        <v>32.99</v>
+        <v>33.61</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -2623,15 +2610,15 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>26.76</v>
+        <v>44.24</v>
       </c>
       <c r="E130">
-        <v>29.22</v>
+        <v>45.61</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2640,26 +2627,32 @@
         <v>0.1</v>
       </c>
       <c r="D131">
-        <v>30.14</v>
+        <v>40.65</v>
       </c>
       <c r="E131">
-        <v>30.09</v>
+        <v>41.12</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132">
         <v>0.1</v>
+      </c>
+      <c r="D132">
+        <v>35.5</v>
+      </c>
+      <c r="E132">
+        <v>33.619999999999997</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -2668,15 +2661,15 @@
         <v>0.1</v>
       </c>
       <c r="D133">
-        <v>30.41</v>
+        <v>40.82</v>
       </c>
       <c r="E133">
-        <v>30.4</v>
+        <v>40.92</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -2685,15 +2678,15 @@
         <v>0.5</v>
       </c>
       <c r="D134">
-        <v>24.41</v>
+        <v>27.08</v>
       </c>
       <c r="E134">
-        <v>25.25</v>
+        <v>31.17</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -2702,15 +2695,15 @@
         <v>0.5</v>
       </c>
       <c r="D135">
-        <v>24.78</v>
+        <v>30.08</v>
       </c>
       <c r="E135">
-        <v>26.22</v>
+        <v>28.19</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -2719,15 +2712,15 @@
         <v>0.5</v>
       </c>
       <c r="D136">
-        <v>25.11</v>
+        <v>33.07</v>
       </c>
       <c r="E136">
-        <v>25.66</v>
+        <v>33.76</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -2736,15 +2729,15 @@
         <v>0.1</v>
       </c>
       <c r="D137">
-        <v>20.93</v>
+        <v>22.79</v>
       </c>
       <c r="E137">
-        <v>20.95</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -2753,15 +2746,15 @@
         <v>0.1</v>
       </c>
       <c r="D138">
-        <v>22.49</v>
+        <v>22.18</v>
       </c>
       <c r="E138">
-        <v>22.17</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -2770,15 +2763,15 @@
         <v>0.1</v>
       </c>
       <c r="D139">
-        <v>20.8</v>
+        <v>27.61</v>
       </c>
       <c r="E139">
-        <v>21.88</v>
+        <v>28.88</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2787,15 +2780,15 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>24.67</v>
+        <v>28.34</v>
       </c>
       <c r="E140">
-        <v>22.95</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -2804,15 +2797,15 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>23.55</v>
+        <v>27.93</v>
       </c>
       <c r="E141">
-        <v>22.5</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -2821,15 +2814,15 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>21.33</v>
+        <v>29.66</v>
       </c>
       <c r="E142">
-        <v>20.64</v>
+        <v>28.74</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2846,7 +2839,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -2863,7 +2856,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -2880,7 +2873,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -2889,15 +2882,15 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>37.5</v>
+        <v>31.25</v>
       </c>
       <c r="E146">
-        <v>36.93</v>
+        <v>30.27</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -2906,15 +2899,15 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>32.46</v>
+        <v>32.25</v>
       </c>
       <c r="E147">
-        <v>32.909999999999997</v>
+        <v>32.24</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -2923,15 +2916,15 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>26.54</v>
+        <v>32.11</v>
       </c>
       <c r="E148">
-        <v>22.5</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2940,15 +2933,15 @@
         <v>0.1</v>
       </c>
       <c r="D149">
-        <v>30.12</v>
+        <v>35.5</v>
       </c>
       <c r="E149">
-        <v>30.15</v>
+        <v>31.91</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -2957,15 +2950,15 @@
         <v>0.1</v>
       </c>
       <c r="D150">
-        <v>29.77</v>
+        <v>31.2</v>
       </c>
       <c r="E150">
-        <v>29.84</v>
+        <v>32.29</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -2974,15 +2967,15 @@
         <v>0.1</v>
       </c>
       <c r="D151">
-        <v>24.74</v>
+        <v>32.31</v>
       </c>
       <c r="E151">
-        <v>24.79</v>
+        <v>33.950000000000003</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -2991,15 +2984,15 @@
         <v>0.5</v>
       </c>
       <c r="D152">
-        <v>21.33</v>
+        <v>23.98</v>
       </c>
       <c r="E152">
-        <v>21.7</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -3008,15 +3001,15 @@
         <v>0.5</v>
       </c>
       <c r="D153">
-        <v>17.149999999999999</v>
+        <v>26.6</v>
       </c>
       <c r="E153">
-        <v>18.12</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -3025,15 +3018,15 @@
         <v>0.5</v>
       </c>
       <c r="D154">
-        <v>18.45</v>
+        <v>26.33</v>
       </c>
       <c r="E154">
-        <v>18.329999999999998</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3042,15 +3035,15 @@
         <v>0.1</v>
       </c>
       <c r="D155">
-        <v>15.67</v>
+        <v>18.07</v>
       </c>
       <c r="E155">
-        <v>15.25</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -3059,15 +3052,15 @@
         <v>0.1</v>
       </c>
       <c r="D156">
-        <v>16.18</v>
+        <v>21.77</v>
       </c>
       <c r="E156">
-        <v>16.12</v>
+        <v>18.489999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -3076,15 +3069,15 @@
         <v>0.1</v>
       </c>
       <c r="D157">
-        <v>12.75</v>
+        <v>23.49</v>
       </c>
       <c r="E157">
-        <v>13.13</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3093,15 +3086,15 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>16.27</v>
+        <v>20.99</v>
       </c>
       <c r="E158">
-        <v>15.19</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3110,15 +3103,15 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>17.420000000000002</v>
+        <v>22.33</v>
       </c>
       <c r="E159">
-        <v>17.66</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -3127,15 +3120,15 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>14.85</v>
+        <v>22.74</v>
       </c>
       <c r="E160">
-        <v>14.23</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3152,7 +3145,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -3169,7 +3162,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -3186,7 +3179,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -3195,15 +3188,15 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>40.21</v>
+        <v>29.27</v>
       </c>
       <c r="E164">
-        <v>41.64</v>
+        <v>30.54</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -3212,15 +3205,15 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>41.7</v>
+        <v>29.29</v>
       </c>
       <c r="E165">
-        <v>38.06</v>
+        <v>28.82</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3229,15 +3222,15 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>40.270000000000003</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="E166">
-        <v>37.82</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -3246,15 +3239,15 @@
         <v>0.1</v>
       </c>
       <c r="D167">
-        <v>35.33</v>
+        <v>30.23</v>
       </c>
       <c r="E167">
-        <v>35.39</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -3263,15 +3256,15 @@
         <v>0.1</v>
       </c>
       <c r="D168">
-        <v>33.35</v>
+        <v>30.97</v>
       </c>
       <c r="E168">
-        <v>36.51</v>
+        <v>32.049999999999997</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3280,15 +3273,15 @@
         <v>0.1</v>
       </c>
       <c r="D169">
-        <v>34.15</v>
+        <v>32.86</v>
       </c>
       <c r="E169">
-        <v>34.119999999999997</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -3297,15 +3290,15 @@
         <v>0.5</v>
       </c>
       <c r="D170">
-        <v>22.59</v>
+        <v>24.01</v>
       </c>
       <c r="E170">
-        <v>21.41</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -3314,15 +3307,15 @@
         <v>0.5</v>
       </c>
       <c r="D171">
-        <v>26.25</v>
+        <v>24.37</v>
       </c>
       <c r="E171">
-        <v>24.76</v>
+        <v>25.07</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3331,15 +3324,15 @@
         <v>0.5</v>
       </c>
       <c r="D172">
-        <v>24.84</v>
+        <v>26.35</v>
       </c>
       <c r="E172">
-        <v>23.57</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -3348,15 +3341,15 @@
         <v>0.1</v>
       </c>
       <c r="D173">
-        <v>17.5</v>
+        <v>19.57</v>
       </c>
       <c r="E173">
-        <v>15.07</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -3365,15 +3358,15 @@
         <v>0.1</v>
       </c>
       <c r="D174">
-        <v>19.21</v>
+        <v>19.87</v>
       </c>
       <c r="E174">
-        <v>19.2</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3382,15 +3375,15 @@
         <v>0.1</v>
       </c>
       <c r="D175">
-        <v>14.28</v>
+        <v>21.86</v>
       </c>
       <c r="E175">
-        <v>14.07</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -3399,15 +3392,15 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>17.95</v>
+        <v>21.35</v>
       </c>
       <c r="E176">
-        <v>19.16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B177">
         <v>2</v>
@@ -3416,15 +3409,15 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>22.65</v>
+        <v>22.4</v>
       </c>
       <c r="E177">
-        <v>23</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -3433,15 +3426,15 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>19.23</v>
+        <v>22.84</v>
       </c>
       <c r="E178">
-        <v>18.37</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -3450,15 +3443,15 @@
         <v>10</v>
       </c>
       <c r="D179">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>15.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -3475,7 +3468,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -3492,7 +3485,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -3501,15 +3494,15 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>43.79</v>
+        <v>42.51</v>
       </c>
       <c r="E182">
-        <v>44.27</v>
+        <v>40.67</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -3518,15 +3511,15 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>32.78</v>
+        <v>39.61</v>
       </c>
       <c r="E183">
-        <v>33.61</v>
+        <v>43.09</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3535,15 +3528,15 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>44.24</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="E184">
-        <v>45.61</v>
+        <v>36.29</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -3552,15 +3545,15 @@
         <v>0.1</v>
       </c>
       <c r="D185">
-        <v>40.65</v>
+        <v>38.44</v>
       </c>
       <c r="E185">
-        <v>41.12</v>
+        <v>40.130000000000003</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -3569,15 +3562,15 @@
         <v>0.1</v>
       </c>
       <c r="D186">
-        <v>35.5</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="E186">
-        <v>33.619999999999997</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3586,15 +3579,15 @@
         <v>0.1</v>
       </c>
       <c r="D187">
-        <v>40.82</v>
+        <v>37.67</v>
       </c>
       <c r="E187">
-        <v>40.92</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -3603,15 +3596,15 @@
         <v>0.5</v>
       </c>
       <c r="D188">
-        <v>27.08</v>
+        <v>31.14</v>
       </c>
       <c r="E188">
-        <v>31.17</v>
+        <v>34.11</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -3620,15 +3613,15 @@
         <v>0.5</v>
       </c>
       <c r="D189">
-        <v>30.08</v>
+        <v>30.8</v>
       </c>
       <c r="E189">
-        <v>28.19</v>
+        <v>33.770000000000003</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3637,15 +3630,15 @@
         <v>0.5</v>
       </c>
       <c r="D190">
-        <v>33.07</v>
+        <v>32.67</v>
       </c>
       <c r="E190">
-        <v>33.76</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -3654,15 +3647,15 @@
         <v>0.1</v>
       </c>
       <c r="D191">
-        <v>22.79</v>
+        <v>29.21</v>
       </c>
       <c r="E191">
-        <v>22.92</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -3671,15 +3664,15 @@
         <v>0.1</v>
       </c>
       <c r="D192">
-        <v>22.18</v>
+        <v>25.15</v>
       </c>
       <c r="E192">
-        <v>18.3</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3688,15 +3681,15 @@
         <v>0.1</v>
       </c>
       <c r="D193">
-        <v>27.61</v>
+        <v>28.61</v>
       </c>
       <c r="E193">
-        <v>28.88</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -3705,15 +3698,15 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>28.34</v>
+        <v>25.51</v>
       </c>
       <c r="E194">
-        <v>27.46</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -3722,15 +3715,15 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>27.93</v>
+        <v>26.76</v>
       </c>
       <c r="E195">
-        <v>28.05</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -3739,15 +3732,15 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>29.66</v>
+        <v>27.66</v>
       </c>
       <c r="E196">
-        <v>28.74</v>
+        <v>30.45</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -3764,7 +3757,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -3781,7 +3774,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -3798,7 +3791,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -3807,15 +3800,15 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>31.25</v>
+        <v>42.85</v>
       </c>
       <c r="E200">
-        <v>30.27</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -3824,15 +3817,15 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>32.25</v>
+        <v>42.19</v>
       </c>
       <c r="E201">
-        <v>32.24</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -3841,15 +3834,15 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>32.11</v>
+        <v>39.58</v>
       </c>
       <c r="E202">
-        <v>32.64</v>
+        <v>37.68</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -3858,15 +3851,15 @@
         <v>0.1</v>
       </c>
       <c r="D203">
-        <v>35.5</v>
+        <v>42.58</v>
       </c>
       <c r="E203">
-        <v>31.91</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -3875,15 +3868,15 @@
         <v>0.1</v>
       </c>
       <c r="D204">
-        <v>31.2</v>
+        <v>35.68</v>
       </c>
       <c r="E204">
-        <v>32.29</v>
+        <v>35.630000000000003</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -3892,15 +3885,15 @@
         <v>0.1</v>
       </c>
       <c r="D205">
-        <v>32.31</v>
+        <v>39.06</v>
       </c>
       <c r="E205">
-        <v>33.950000000000003</v>
+        <v>37.56</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -3909,15 +3902,15 @@
         <v>0.5</v>
       </c>
       <c r="D206">
-        <v>23.98</v>
+        <v>37.15</v>
       </c>
       <c r="E206">
-        <v>25.8</v>
+        <v>35.729999999999997</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -3926,15 +3919,15 @@
         <v>0.5</v>
       </c>
       <c r="D207">
-        <v>26.6</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="E207">
-        <v>25.29</v>
+        <v>33.19</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -3943,15 +3936,15 @@
         <v>0.5</v>
       </c>
       <c r="D208">
-        <v>26.33</v>
+        <v>33.68</v>
       </c>
       <c r="E208">
-        <v>25.02</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -3960,15 +3953,15 @@
         <v>0.1</v>
       </c>
       <c r="D209">
-        <v>18.07</v>
+        <v>27.91</v>
       </c>
       <c r="E209">
-        <v>19.05</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -3977,15 +3970,15 @@
         <v>0.1</v>
       </c>
       <c r="D210">
-        <v>21.77</v>
+        <v>27.41</v>
       </c>
       <c r="E210">
-        <v>18.489999999999998</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -3994,15 +3987,15 @@
         <v>0.1</v>
       </c>
       <c r="D211">
-        <v>23.49</v>
+        <v>27.15</v>
       </c>
       <c r="E211">
-        <v>23.71</v>
+        <v>31.45</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -4011,15 +4004,15 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>20.99</v>
+        <v>33.82</v>
       </c>
       <c r="E212">
-        <v>22.19</v>
+        <v>33.81</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -4028,15 +4021,15 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>22.33</v>
+        <v>27.42</v>
       </c>
       <c r="E213">
-        <v>21.56</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -4045,15 +4038,15 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>22.74</v>
+        <v>29.17</v>
       </c>
       <c r="E214">
-        <v>23.76</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4070,7 +4063,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4087,7 +4080,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -4104,7 +4097,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -4113,15 +4106,15 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>29.27</v>
+        <v>36.25</v>
       </c>
       <c r="E218">
-        <v>30.54</v>
+        <v>37.020000000000003</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -4130,15 +4123,15 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>29.29</v>
+        <v>32.06</v>
       </c>
       <c r="E219">
-        <v>28.82</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -4147,15 +4140,15 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>34.159999999999997</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="E220">
-        <v>34.5</v>
+        <v>37.99</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -4164,15 +4157,15 @@
         <v>0.1</v>
       </c>
       <c r="D221">
-        <v>30.23</v>
+        <v>37.19</v>
       </c>
       <c r="E221">
-        <v>30.28</v>
+        <v>39.46</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -4181,15 +4174,15 @@
         <v>0.1</v>
       </c>
       <c r="D222">
-        <v>30.97</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="E222">
-        <v>32.049999999999997</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B223">
         <v>3</v>
@@ -4198,15 +4191,15 @@
         <v>0.1</v>
       </c>
       <c r="D223">
-        <v>32.86</v>
+        <v>36.31</v>
       </c>
       <c r="E223">
-        <v>32.86</v>
+        <v>38.15</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -4215,15 +4208,15 @@
         <v>0.5</v>
       </c>
       <c r="D224">
-        <v>24.01</v>
+        <v>41.96</v>
       </c>
       <c r="E224">
-        <v>24.36</v>
+        <v>42.77</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -4232,15 +4225,15 @@
         <v>0.5</v>
       </c>
       <c r="D225">
-        <v>24.37</v>
+        <v>42.58</v>
       </c>
       <c r="E225">
-        <v>25.07</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -4249,15 +4242,15 @@
         <v>0.5</v>
       </c>
       <c r="D226">
-        <v>26.35</v>
+        <v>42.86</v>
       </c>
       <c r="E226">
-        <v>28.16</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4266,15 +4259,15 @@
         <v>0.1</v>
       </c>
       <c r="D227">
-        <v>19.57</v>
+        <v>42.76</v>
       </c>
       <c r="E227">
-        <v>19.39</v>
+        <v>42.27</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -4283,15 +4276,15 @@
         <v>0.1</v>
       </c>
       <c r="D228">
-        <v>19.87</v>
+        <v>39.54</v>
       </c>
       <c r="E228">
-        <v>21.07</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -4300,15 +4293,15 @@
         <v>0.1</v>
       </c>
       <c r="D229">
-        <v>21.86</v>
+        <v>42.27</v>
       </c>
       <c r="E229">
-        <v>22.4</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -4317,15 +4310,15 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>21.35</v>
+        <v>42.27</v>
       </c>
       <c r="E230">
-        <v>21</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -4334,15 +4327,15 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>22.4</v>
+        <v>41.64</v>
       </c>
       <c r="E231">
-        <v>22.38</v>
+        <v>41.62</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B232">
         <v>3</v>
@@ -4351,15 +4344,15 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>22.84</v>
+        <v>44.58</v>
       </c>
       <c r="E232">
-        <v>22.33</v>
+        <v>44.91</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -4376,7 +4369,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -4393,7 +4386,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B235">
         <v>3</v>
@@ -5327,21 +5320,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E289" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-        <filter val="10"/>
-        <filter val="14"/>
-        <filter val="15"/>
-        <filter val="16"/>
-        <filter val="5"/>
-        <filter val="7"/>
-        <filter val="8"/>
-        <filter val="9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
